--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/武功.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meino\Documents\Projects\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE66F81-4DA5-41A3-965E-292783F8767C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17685" yWindow="2655" windowWidth="24900" windowHeight="17985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -110,7 +104,7 @@
     <t>野球拳</t>
   </si>
   <si>
-    <t>3,1,0,0,0|5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|40,1,0,0,0|80,1,0,0,0|160,1,0,0,0|320,1,0,0,0|2000,4,0,0,0</t>
+    <t>3,1,0,0,0|5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|40,1,0,0,0|80,1,0,0,0|160,1,0,0,0|320,1,0,0,0|1200,4,0,0,0</t>
   </si>
   <si>
     <t>武当长拳</t>
@@ -659,8 +653,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -671,7 +671,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -687,17 +687,157 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,8 +850,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -734,21 +1060,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -768,21 +1336,65 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1111,29 +1723,29 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="7" max="7" width="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1156,7 +1768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1179,7 +1791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1202,7 +1814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1225,7 +1837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1248,7 +1860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1271,7 +1883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1294,7 +1906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1317,7 +1929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1340,7 +1952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1363,7 +1975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1386,7 +1998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1409,7 +2021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1432,7 +2044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1455,7 +2067,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1478,7 +2090,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1501,7 +2113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1524,7 +2136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1547,7 +2159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1570,7 +2182,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1593,7 +2205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1616,7 +2228,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1639,7 +2251,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1662,7 +2274,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1685,7 +2297,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -1708,7 +2320,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -1731,7 +2343,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -1754,7 +2366,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -1777,7 +2389,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -1800,7 +2412,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -1823,7 +2435,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -1846,7 +2458,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -1869,7 +2481,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -1892,7 +2504,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -1915,7 +2527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -1938,7 +2550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -1961,7 +2573,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -1984,7 +2596,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2007,7 +2619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2030,7 +2642,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2053,7 +2665,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2076,7 +2688,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2099,7 +2711,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2122,7 +2734,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2145,7 +2757,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -2168,7 +2780,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -2191,7 +2803,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -2214,7 +2826,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="3">
         <v>45</v>
       </c>
@@ -2237,7 +2849,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="3">
         <v>46</v>
       </c>
@@ -2260,7 +2872,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="3">
         <v>47</v>
       </c>
@@ -2283,7 +2895,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="3">
         <v>48</v>
       </c>
@@ -2306,7 +2918,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="3">
         <v>49</v>
       </c>
@@ -2329,7 +2941,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="3">
         <v>50</v>
       </c>
@@ -2352,7 +2964,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="3">
         <v>51</v>
       </c>
@@ -2375,7 +2987,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="3">
         <v>52</v>
       </c>
@@ -2398,7 +3010,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="3">
         <v>53</v>
       </c>
@@ -2421,7 +3033,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="3">
         <v>54</v>
       </c>
@@ -2444,7 +3056,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="3">
         <v>55</v>
       </c>
@@ -2467,7 +3079,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="3">
         <v>56</v>
       </c>
@@ -2490,7 +3102,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="3">
         <v>57</v>
       </c>
@@ -2513,7 +3125,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="3">
         <v>58</v>
       </c>
@@ -2536,7 +3148,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="3">
         <v>59</v>
       </c>
@@ -2559,7 +3171,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="3">
         <v>60</v>
       </c>
@@ -2582,7 +3194,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="3">
         <v>61</v>
       </c>
@@ -2605,7 +3217,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="3">
         <v>62</v>
       </c>
@@ -2628,7 +3240,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="3">
         <v>63</v>
       </c>
@@ -2651,7 +3263,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="3">
         <v>64</v>
       </c>
@@ -2674,7 +3286,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="3">
         <v>65</v>
       </c>
@@ -2697,7 +3309,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="3">
         <v>66</v>
       </c>
@@ -2720,7 +3332,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="3">
         <v>67</v>
       </c>
@@ -2743,7 +3355,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="3">
         <v>68</v>
       </c>
@@ -2766,7 +3378,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="3">
         <v>69</v>
       </c>
@@ -2789,7 +3401,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="3">
         <v>70</v>
       </c>
@@ -2812,7 +3424,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="3">
         <v>71</v>
       </c>
@@ -2835,7 +3447,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="3">
         <v>72</v>
       </c>
@@ -2858,7 +3470,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="3">
         <v>73</v>
       </c>
@@ -2881,7 +3493,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="3">
         <v>74</v>
       </c>
@@ -2904,7 +3516,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="3">
         <v>75</v>
       </c>
@@ -2927,7 +3539,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="3">
         <v>76</v>
       </c>
@@ -2950,7 +3562,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="3">
         <v>77</v>
       </c>
@@ -2973,7 +3585,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="3">
         <v>78</v>
       </c>
@@ -2996,7 +3608,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="3">
         <v>79</v>
       </c>
@@ -3019,7 +3631,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="3">
         <v>80</v>
       </c>
@@ -3042,7 +3654,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="3">
         <v>81</v>
       </c>
@@ -3065,7 +3677,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="3">
         <v>82</v>
       </c>
@@ -3088,7 +3700,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="3">
         <v>83</v>
       </c>
@@ -3111,7 +3723,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="3">
         <v>84</v>
       </c>
@@ -3134,7 +3746,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="3">
         <v>85</v>
       </c>
@@ -3157,7 +3769,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="3">
         <v>86</v>
       </c>
@@ -3180,7 +3792,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="3">
         <v>87</v>
       </c>
@@ -3203,7 +3815,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="3">
         <v>88</v>
       </c>
@@ -3226,7 +3838,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="3">
         <v>89</v>
       </c>
@@ -3249,7 +3861,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="3">
         <v>90</v>
       </c>
@@ -3272,7 +3884,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="3">
         <v>91</v>
       </c>
@@ -3295,7 +3907,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="3">
         <v>92</v>
       </c>
@@ -3318,7 +3930,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" s="1" customFormat="1" spans="1:7">
       <c r="A97" s="5">
         <v>93</v>
       </c>
@@ -3341,7 +3953,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" s="1" customFormat="1" spans="1:7">
       <c r="A98" s="5">
         <v>94</v>
       </c>
@@ -3364,7 +3976,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" s="1" customFormat="1" spans="1:7">
       <c r="A99" s="5">
         <v>95</v>
       </c>
@@ -3387,7 +3999,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="100" ht="16.5" spans="1:7">
       <c r="A100" s="3">
         <v>96</v>
       </c>
@@ -3410,7 +4022,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" s="1" customFormat="1" spans="1:7">
       <c r="A101" s="5">
         <v>97</v>
       </c>
@@ -3433,7 +4045,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3442,7 +4054,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3451,7 +4063,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3460,7 +4072,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3469,7 +4081,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3478,7 +4090,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3487,7 +4099,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3496,7 +4108,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3505,7 +4117,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3514,7 +4126,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3523,7 +4135,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3532,7 +4144,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3541,7 +4153,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3550,7 +4162,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3559,7 +4171,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3568,7 +4180,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3577,7 +4189,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3586,7 +4198,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3595,7 +4207,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3604,7 +4216,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3613,7 +4225,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3622,7 +4234,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3631,7 +4243,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3640,7 +4252,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3649,7 +4261,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3658,7 +4270,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3667,7 +4279,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3676,7 +4288,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3685,7 +4297,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -3694,7 +4306,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -3703,7 +4315,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -3712,7 +4324,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3721,7 +4333,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3730,7 +4342,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3739,7 +4351,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3748,7 +4360,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3757,7 +4369,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3766,7 +4378,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3775,7 +4387,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3784,7 +4396,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3793,7 +4405,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3802,7 +4414,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3811,7 +4423,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3820,7 +4432,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3829,7 +4441,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3838,7 +4450,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3847,7 +4459,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3856,7 +4468,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3865,7 +4477,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3874,7 +4486,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3883,7 +4495,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3892,7 +4504,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3901,7 +4513,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3910,7 +4522,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3919,7 +4531,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3928,7 +4540,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3937,7 +4549,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3946,7 +4558,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3955,7 +4567,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3964,7 +4576,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3973,7 +4585,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -3982,7 +4594,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -3991,7 +4603,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -4000,7 +4612,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -4009,7 +4621,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -4018,7 +4630,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -4027,7 +4639,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -4036,7 +4648,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -4045,7 +4657,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -4054,7 +4666,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -4063,7 +4675,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -4072,7 +4684,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -4081,7 +4693,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -4090,7 +4702,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -4099,7 +4711,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -4108,7 +4720,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -4117,7 +4729,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -4126,7 +4738,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -4135,7 +4747,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -4144,7 +4756,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -4153,7 +4765,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -4162,7 +4774,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -4171,7 +4783,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -4180,7 +4792,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -4189,7 +4801,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -4198,7 +4810,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -4207,7 +4819,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -4216,7 +4828,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -4225,7 +4837,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -4234,7 +4846,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -4243,7 +4855,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -4252,7 +4864,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -4261,7 +4873,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -4270,7 +4882,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -4279,7 +4891,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -4288,7 +4900,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -4297,7 +4909,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -4306,7 +4918,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -4315,7 +4927,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -4324,7 +4936,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -4333,7 +4945,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -4342,7 +4954,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -4352,8 +4964,8 @@
       <c r="G203" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/武功.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="261">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSkill</t>
   </si>
@@ -74,6 +74,9 @@
     <t>Levels</t>
   </si>
   <si>
+    <t>DisplayFileName</t>
+  </si>
+  <si>
     <t>代号</t>
   </si>
   <si>
@@ -95,18 +98,24 @@
     <t>技能等级配置(攻击力，移动范围，杀伤范围，加内力，杀伤内力)</t>
   </si>
   <si>
+    <t>显示文件名</t>
+  </si>
+  <si>
     <t>普通攻击</t>
   </si>
   <si>
     <t>0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0</t>
   </si>
   <si>
+    <t>石剪布拳法</t>
+  </si>
+  <si>
+    <t>3,1,0,0,0|5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|40,1,0,0,0|80,1,0,0,0|160,1,0,0,0|320,1,0,0,0|1200,4,0,0,0</t>
+  </si>
+  <si>
     <t>野球拳</t>
   </si>
   <si>
-    <t>3,1,0,0,0|5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|40,1,0,0,0|80,1,0,0,0|160,1,0,0,0|320,1,0,0,0|1200,4,0,0,0</t>
-  </si>
-  <si>
     <t>武当长拳</t>
   </si>
   <si>
@@ -131,156 +140,228 @@
     <t>15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|40,1,0,0,0|45,1,0,0,0|50,1,0,0,0|55,1,0,0,0|60,1,0,0,0|150,1,0,0,0</t>
   </si>
   <si>
+    <t>七伤七破拳</t>
+  </si>
+  <si>
+    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|120,2,0,0,0|140,3,0,0,0|160,3,1,0,0|200,3,1,0,0|400,4,2,0,0</t>
+  </si>
+  <si>
     <t>七伤拳</t>
   </si>
   <si>
-    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|120,2,0,0,0|140,3,0,0,0|160,3,1,0,0|200,3,1,0,0|400,4,2,0,0</t>
+    <t>混元掌法</t>
+  </si>
+  <si>
+    <t>20,1,0,0,0|30,1,0,0,0|40,1,0,0,0|50,2,0,0,0|60,2,0,0,0|70,2,0,0,0|80,3,0,0,0|90,3,0,0,0|100,3,0,0,0|200,4,0,0,0</t>
   </si>
   <si>
     <t>混元掌</t>
   </si>
   <si>
-    <t>20,1,0,0,0|30,1,0,0,0|40,1,0,0,0|50,2,0,0,0|60,2,0,0,0|70,2,0,0,0|80,3,0,0,0|90,3,0,0,0|100,3,0,0,0|200,4,0,0,0</t>
+    <t>寒冰掌法</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,0,0,0|90,2,0,0,0|100,2,0,0,0|110,3,0,0,0|120,3,0,0,0|130,3,0,0,0|250,4,0,0,0</t>
   </si>
   <si>
     <t>寒冰绵掌</t>
   </si>
   <si>
-    <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,0,0,0|90,2,0,0,0|100,2,0,0,0|110,3,0,0,0|120,3,0,0,0|130,3,0,0,0|250,4,0,0,0</t>
+    <t>鹰爪功法</t>
+  </si>
+  <si>
+    <t>35,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,1,0,0|90,2,1,0,0|105,2,1,0,0|120,3,1,0,0|135,3,1,0,0|150,3,1,0,0|300,4,2,0,0</t>
   </si>
   <si>
     <t>鹰爪功</t>
   </si>
   <si>
-    <t>35,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,1,0,0|90,2,1,0,0|105,2,1,0,0|120,3,1,0,0|135,3,1,0,0|150,3,1,0,0|300,4,2,0,0</t>
+    <t>逍遥掌法</t>
+  </si>
+  <si>
+    <t>20,1,0,0,0|40,1,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,4,0,0,0|160,4,0,0,0|180,5,0,0,0|300,5,0,0,0</t>
   </si>
   <si>
     <t>逍遥掌</t>
   </si>
   <si>
-    <t>20,1,0,0,0|40,1,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,4,0,0,0|160,4,0,0,0|180,5,0,0,0|300,5,0,0,0</t>
+    <t>钢铁掌法</t>
+  </si>
+  <si>
+    <t>20,1,0,0,0|40,1,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,4,0,0,0|160,4,0,0,0|180,5,0,0,0|450,5,0,0,0</t>
   </si>
   <si>
     <t>铁掌</t>
   </si>
   <si>
-    <t>20,1,0,0,0|40,1,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,4,0,0,0|160,4,0,0,0|180,5,0,0,0|450,5,0,0,0</t>
+    <t>幻冰指</t>
+  </si>
+  <si>
+    <t>30,2,0,0,0|60,2,0,0,0|90,3,0,0,0|120,3,0,0,0|150,4,0,0,0|260,4,0,0,0|370,5,0,0,0|480,5,0,0,0|590,6,0,0,0|660,6,0,0,0</t>
   </si>
   <si>
     <t>幻阴指</t>
   </si>
   <si>
-    <t>30,2,0,0,0|60,2,0,0,0|90,3,0,0,0|120,3,0,0,0|150,4,0,0,0|260,4,0,0,0|370,5,0,0,0|480,5,0,0,0|590,6,0,0,0|660,6,0,0,0</t>
+    <t>寒冰掌</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,1,0,0|150,3,1,0,0|200,3,1,0,0|250,4,2,0,0|300,4,2,0,0|400,5,2,0,0|550,5,3,0,0</t>
   </si>
   <si>
     <t>寒冰神掌</t>
   </si>
   <si>
-    <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,1,0,0|150,3,1,0,0|200,3,1,0,0|250,4,2,0,0|300,4,2,0,0|400,5,2,0,0|550,5,3,0,0</t>
-  </si>
-  <si>
     <t>千手如来掌</t>
   </si>
   <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,2,0,0,0|80,2,1,0,0|100,2,1,0,0|130,3,1,0,0|160,3,2,0,0|190,3,2,0,0|220,4,2,0,0|450,4,3,0,0</t>
   </si>
   <si>
+    <t>天山逍遥掌</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|60,1,0,0,0|90,1,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,3,0,0,0|240,3,0,0,0|270,3,0,0,0|400,4,0,0,0</t>
+  </si>
+  <si>
     <t>天山六阳掌</t>
   </si>
   <si>
-    <t>30,1,0,0,0|60,1,0,0,0|90,1,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,3,0,0,0|240,3,0,0,0|270,3,0,0,0|400,4,0,0,0</t>
+    <t>玄冥掌</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,3,0,0,0|180,3,0,0,0|210,4,0,0,0|240,4,0,0,0|270,5,0,0,0|450,5,0,0,0</t>
   </si>
   <si>
     <t>玄冥神掌</t>
   </si>
   <si>
-    <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,3,0,0,0|180,3,0,0,0|210,4,0,0,0|240,4,0,0,0|270,5,0,0,0|450,5,0,0,0</t>
+    <t>冰毒之掌</t>
+  </si>
+  <si>
+    <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|130,3,0,0,0|160,3,0,0,0|190,4,0,0,0|220,4,0,0,0|250,5,0,0,0|450,5,0,0,0</t>
   </si>
   <si>
     <t>冰蚕毒掌</t>
   </si>
   <si>
-    <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|130,3,0,0,0|160,3,0,0,0|190,4,0,0,0|220,4,0,0,0|250,5,0,0,0|450,5,0,0,0</t>
+    <t>龙象九重功</t>
+  </si>
+  <si>
+    <t>50,1,0,0,0|70,1,0,0,0|90,2,0,0,0|120,2,1,0,0|150,3,1,0,0|180,3,1,0,0|220,4,1,0,0|260,4,2,0,0|300,5,2,0,0|480,5,2,0,0</t>
   </si>
   <si>
     <t>龙象般若功</t>
   </si>
   <si>
-    <t>50,1,0,0,0|70,1,0,0,0|90,2,0,0,0|120,2,1,0,0|150,3,1,0,0|180,3,1,0,0|220,4,1,0,0|260,4,2,0,0|300,5,2,0,0|480,5,2,0,0</t>
+    <t>气劲指法</t>
+  </si>
+  <si>
+    <t>40,1,0,0,0|80,1,0,0,0|120,2,0,0,0|160,2,0,0,0|200,3,0,0,0|240,3,0,0,0|280,4,0,0,0|320,5,0,0,0|360,6,0,0,0|500,7,0,0,0</t>
   </si>
   <si>
     <t>一阳指</t>
   </si>
   <si>
-    <t>40,1,0,0,0|80,1,0,0,0|120,2,0,0,0|160,2,0,0,0|200,3,0,0,0|240,3,0,0,0|280,4,0,0,0|320,5,0,0,0|360,6,0,0,0|500,7,0,0,0</t>
+    <t>太极拳法</t>
+  </si>
+  <si>
+    <t>150,1,0,0,0|200,1,0,0,0|250,1,0,0,0|300,2,0,0,0|350,2,0,0,0|400,2,0,0,0|450,3,0,0,0|500,3,0,0,0|550,3,0,0,0|660,4,0,0,0</t>
   </si>
   <si>
     <t>太极拳</t>
   </si>
   <si>
-    <t>150,1,0,0,0|200,1,0,0,0|250,1,0,0,0|300,2,0,0,0|350,2,0,0,0|400,2,0,0,0|450,3,0,0,0|500,3,0,0,0|550,3,0,0,0|660,4,0,0,0</t>
+    <t>两手空空拳</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,3,0,0,0|200,3,0,0,0|250,4,0,0,0|300,4,0,0,0|400,4,0,0,0|700,5,0,0,0</t>
   </si>
   <si>
     <t>空明拳</t>
   </si>
   <si>
-    <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,3,0,0,0|200,3,0,0,0|250,4,0,0,0|300,4,0,0,0|400,4,0,0,0|700,5,0,0,0</t>
+    <t>蟾蜍功</t>
+  </si>
+  <si>
+    <t>150,1,0,0,0|200,1,0,0,0|250,2,0,0,0|300,2,0,0,0|350,3,0,0,0|400,3,0,0,0|450,4,0,0,0|500,4,0,0,0|550,5,0,0,0|770,5,0,0,0</t>
   </si>
   <si>
     <t>蛤蟆功</t>
   </si>
   <si>
-    <t>150,1,0,0,0|200,1,0,0,0|250,2,0,0,0|300,2,0,0,0|350,3,0,0,0|400,3,0,0,0|450,4,0,0,0|500,4,0,0,0|550,5,0,0,0|770,5,0,0,0</t>
+    <t>太玄内劲</t>
+  </si>
+  <si>
+    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,1,0,0|250,2,1,0,0|300,2,1,0,0|350,3,2,0,0|400,3,2,0,0|450,3,2,0,0|700,4,3,0,0</t>
   </si>
   <si>
     <t>太玄神功</t>
   </si>
   <si>
-    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,1,0,0|250,2,1,0,0|300,2,1,0,0|350,3,2,0,0|400,3,2,0,0|450,3,2,0,0|700,4,3,0,0</t>
+    <t>黯然蚀骨掌</t>
+  </si>
+  <si>
+    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,0,0,0|250,2,0,0,0|300,2,0,0,0|350,3,0,0,0|400,3,0,0,0|450,3,0,0,0|600,4,0,0,0</t>
   </si>
   <si>
     <t>黯然销魂掌</t>
   </si>
   <si>
-    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,0,0,0|250,2,0,0,0|300,2,0,0,0|350,3,0,0,0|400,3,0,0,0|450,3,0,0,0|600,4,0,0,0</t>
+    <t>降龙掌法</t>
+  </si>
+  <si>
+    <t>100,2,0,0,0|180,2,0,0,0|240,2,0,0,0|300,3,0,0,0|360,3,0,0,0|420,3,0,0,0|480,4,0,0,0|540,4,0,0,0|600,4,0,0,0|900,5,0,0,0</t>
   </si>
   <si>
     <t>降龙十八掌</t>
   </si>
   <si>
-    <t>100,2,0,0,0|180,2,0,0,0|240,2,0,0,0|300,3,0,0,0|360,3,0,0,0|420,3,0,0,0|480,4,0,0,0|540,4,0,0,0|600,4,0,0,0|900,5,0,0,0</t>
+    <t>葵花内劲</t>
+  </si>
+  <si>
+    <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1300,5,3,0,0</t>
   </si>
   <si>
     <t>葵花神功</t>
   </si>
   <si>
-    <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1300,5,3,0,0</t>
+    <t>化功之法</t>
+  </si>
+  <si>
+    <t>0,1,0,0,5|0,1,0,0,10|0,1,0,0,15|0,1,0,0,20|0,1,0,0,25|0,1,0,0,30|0,1,0,0,35|0,1,0,0,40|0,1,0,0,45|0,1,0,0,70</t>
   </si>
   <si>
     <t>化功大法</t>
   </si>
   <si>
-    <t>0,1,0,0,5|0,1,0,0,10|0,1,0,0,15|0,1,0,0,20|0,1,0,0,25|0,1,0,0,30|0,1,0,0,35|0,1,0,0,40|0,1,0,0,45|0,1,0,0,70</t>
+    <t>吸星之法</t>
+  </si>
+  <si>
+    <t>0,1,0,5,10|0,1,0,8,15|0,1,0,10,20|0,1,0,13,25|0,1,0,15,30|0,1,0,18,35|0,1,0,20,40|0,1,0,23,45|0,1,0,25,50|0,1,0,45,80</t>
   </si>
   <si>
     <t>吸星大法</t>
   </si>
   <si>
-    <t>0,1,0,5,10|0,1,0,8,15|0,1,0,10,20|0,1,0,13,25|0,1,0,15,30|0,1,0,18,35|0,1,0,20,40|0,1,0,23,45|0,1,0,25,50|0,1,0,45,80</t>
+    <t>北冥内劲</t>
+  </si>
+  <si>
+    <t>0,1,0,10,10|0,1,0,15,15|0,1,0,20,20|0,1,0,25,25|0,1,0,30,30|0,1,0,35,35|0,1,0,40,40|0,1,0,45,45|0,1,0,50,50|0,1,0,100,100</t>
   </si>
   <si>
     <t>北冥神功</t>
   </si>
   <si>
-    <t>0,1,0,10,10|0,1,0,15,15|0,1,0,20,20|0,1,0,25,25|0,1,0,30,30|0,1,0,35,35|0,1,0,40,40|0,1,0,45,45|0,1,0,50,50|0,1,0,100,100</t>
+    <t>六脉气劲指</t>
+  </si>
+  <si>
+    <t>30,3,0,0,0|70,3,0,0,0|120,3,0,0,0|180,4,0,0,0|250,4,0,0,0|330,5,0,0,0|420,5,0,0,0|520,6,0,0,0|630,6,0,0,0|800,7,0,0,0</t>
   </si>
   <si>
     <t>六脉神剑</t>
   </si>
   <si>
-    <t>30,3,0,0,0|70,3,0,0,0|120,3,0,0,0|180,4,0,0,0|250,4,0,0,0|330,5,0,0,0|420,5,0,0,0|520,6,0,0,0|630,6,0,0,0|800,7,0,0,0</t>
-  </si>
-  <si>
     <t>躺尸剑法</t>
   </si>
   <si>
@@ -356,36 +437,51 @@
     <t>30,1,0,0,0|50,1,0,0,0|70,1,0,0,0|90,1,0,0,0|100,1,0,0,0|110,2,0,0,0|120,2,0,0,0|125,2,0,0,0|130,3,0,0,0|200,3,0,0,0</t>
   </si>
   <si>
+    <t>泰山五神剑</t>
+  </si>
+  <si>
+    <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,3,0,0,0|110,3,0,0,0|120,3,0,0,0|125,4,0,0,0|130,4,0,0,0|300,4,0,0,0</t>
+  </si>
+  <si>
     <t>泰山十八盘</t>
   </si>
   <si>
-    <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,3,0,0,0|110,3,0,0,0|120,3,0,0,0|125,4,0,0,0|130,4,0,0,0|300,4,0,0,0</t>
+    <t>落雁逍遥剑</t>
+  </si>
+  <si>
+    <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|140,4,2,0,0|300,5,2,0,0</t>
   </si>
   <si>
     <t>回峰落雁剑</t>
   </si>
   <si>
-    <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|140,4,2,0,0|300,5,2,0,0</t>
+    <t>两仪剑术</t>
+  </si>
+  <si>
+    <t>60,1,0,0,0|90,1,0,0,0|120,1,0,0,0|130,1,0,0,0|140,2,0,0,0|150,2,0,0,0|160,2,0,0,0|170,3,0,0,0|180,3,0,0,0|250,3,0,0,0</t>
   </si>
   <si>
     <t>两仪剑法</t>
   </si>
   <si>
-    <t>60,1,0,0,0|90,1,0,0,0|120,1,0,0,0|130,1,0,0,0|140,2,0,0,0|150,2,0,0,0|160,2,0,0,0|170,3,0,0,0|180,3,0,0,0|250,3,0,0,0</t>
+    <t>夺命连环剑</t>
+  </si>
+  <si>
+    <t>65,2,0,0,0|100,2,0,0,0|140,3,0,0,0|170,3,0,0,0|190,4,0,0,0|200,4,0,0,0|210,5,0,0,0|220,5,0,0,0|230,6,0,0,0|300,6,0,0,0</t>
   </si>
   <si>
     <t>太岳三青峰</t>
   </si>
   <si>
-    <t>65,2,0,0,0|100,2,0,0,0|140,3,0,0,0|170,3,0,0,0|190,4,0,0,0|200,4,0,0,0|210,5,0,0,0|220,5,0,0,0|230,6,0,0,0|300,6,0,0,0</t>
+    <t>玉女剑法</t>
+  </si>
+  <si>
+    <t>70,1,0,0,0|110,1,0,0,0|150,1,0,0,0|175,1,0,0,0|195,2,0,0,0|205,2,0,0,0|215,2,0,0,0|225,2,0,0,0|235,3,0,0,0|400,3,0,0,0</t>
   </si>
   <si>
     <t>玉女素心剑</t>
   </si>
   <si>
-    <t>70,1,0,0,0|110,1,0,0,0|150,1,0,0,0|175,1,0,0,0|195,2,0,0,0|205,2,0,0,0|215,2,0,0,0|225,2,0,0,0|235,3,0,0,0|400,3,0,0,0</t>
-  </si>
-  <si>
     <t>逍遥剑法</t>
   </si>
   <si>
@@ -410,30 +506,42 @@
     <t>70,2,0,0,0|95,2,0,0,0|115,2,0,0,0|135,3,0,0,0|155,3,0,0,0|180,3,0,0,0|210,3,0,0,0|240,3,0,0,0|270,4,0,0,0|450,4,0,0,0</t>
   </si>
   <si>
+    <t>黄蟒剑法</t>
+  </si>
+  <si>
+    <t>80,2,0,0,0|120,2,0,0,0|160,3,0,0,0|190,3,0,0,0|220,4,0,0,0|240,4,0,0,0|260,5,0,0,0|280,5,0,0,0|290,6,0,0,0|400,6,0,0,0</t>
+  </si>
+  <si>
     <t>金蛇剑法</t>
   </si>
   <si>
-    <t>80,2,0,0,0|120,2,0,0,0|160,3,0,0,0|190,3,0,0,0|220,4,0,0,0|240,4,0,0,0|260,5,0,0,0|280,5,0,0,0|290,6,0,0,0|400,6,0,0,0</t>
+    <t>四象八卦剑</t>
+  </si>
+  <si>
+    <t>60,2,0,0,0|120,2,0,0,0|170,2,0,0,0|210,2,0,0,0|240,3,0,0,0|260,3,0,0,0|280,3,0,0,0|300,4,0,0,0|310,4,0,0,0|500,5,0,0,0</t>
   </si>
   <si>
     <t>苗家剑法</t>
   </si>
   <si>
-    <t>60,2,0,0,0|120,2,0,0,0|170,2,0,0,0|210,2,0,0,0|240,3,0,0,0|260,3,0,0,0|280,3,0,0,0|300,4,0,0,0|310,4,0,0,0|500,5,0,0,0</t>
+    <t>玉真剑法</t>
+  </si>
+  <si>
+    <t>40,1,0,0,0|80,1,0,0,0|120,2,0,0,0|160,2,0,0,0|200,3,0,0,0|240,3,0,0,0|280,4,0,0,0|320,4,0,0,0|360,5,0,0,0|600,5,0,0,0</t>
   </si>
   <si>
     <t>玉箫剑法</t>
   </si>
   <si>
-    <t>40,1,0,0,0|80,1,0,0,0|120,2,0,0,0|160,2,0,0,0|200,3,0,0,0|240,3,0,0,0|280,4,0,0,0|320,4,0,0,0|360,5,0,0,0|600,5,0,0,0</t>
+    <t>玄铁斩</t>
+  </si>
+  <si>
+    <t>60,3,0,0,0|90,3,0,0,0|120,3,0,0,0|150,3,0,0,0|200,3,0,0,0|250,5,0,0,0|300,5,0,0,0|400,5,0,0,0|500,5,0,0,0|700,7,0,0,0</t>
   </si>
   <si>
     <t>玄铁剑法</t>
   </si>
   <si>
-    <t>60,3,0,0,0|90,3,0,0,0|120,3,0,0,0|150,3,0,0,0|200,3,0,0,0|250,5,0,0,0|300,5,0,0,0|400,5,0,0,0|500,5,0,0,0|700,7,0,0,0</t>
-  </si>
-  <si>
     <t>太极剑法</t>
   </si>
   <si>
@@ -446,64 +554,91 @@
     <t>50,2,0,0,0|100,2,0,0,0|150,3,0,0,0|200,3,0,0,0|250,3,0,0,0|300,4,0,0,0|350,4,0,0,0|400,4,0,0,0|450,5,0,0,0|600,5,0,0,0</t>
   </si>
   <si>
+    <t>阴邪神剑</t>
+  </si>
+  <si>
+    <t>100,1,0,0,0|200,1,0,0,0|300,1,0,0,0|400,1,0,0,0|500,1,0,0,0|600,1,0,0,0|700,1,0,0,0|800,1,0,0,0|900,1,0,0,0|1200,1,0,0,0</t>
+  </si>
+  <si>
     <t>辟邪剑法</t>
   </si>
   <si>
-    <t>100,1,0,0,0|200,1,0,0,0|300,1,0,0,0|400,1,0,0,0|500,1,0,0,0|600,1,0,0,0|700,1,0,0,0|800,1,0,0,0|900,1,0,0,0|1200,1,0,0,0</t>
+    <t>求败剑法</t>
+  </si>
+  <si>
+    <t>100,3,1,0,0|150,3,1,0,0|200,3,1,0,0|250,5,2,0,0|300,5,2,0,0|350,5,2,0,0|400,7,3,0,0|450,7,3,0,0|500,7,3,0,0|800,7,3,0,0</t>
   </si>
   <si>
     <t>独孤九剑</t>
   </si>
   <si>
-    <t>100,3,1,0,0|150,3,1,0,0|200,3,1,0,0|250,5,2,0,0|300,5,2,0,0|350,5,2,0,0|400,7,3,0,0|450,7,3,0,0|500,7,3,0,0|800,7,3,0,0</t>
-  </si>
-  <si>
     <t>西瓜刀法</t>
   </si>
   <si>
     <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|35,1,0,0,0|40,1,0,0,0|80,1,0,0,0|160,1,0,0,0|320,1,0,0,0|740,1,0,0,0</t>
   </si>
   <si>
+    <t>血刀斩法</t>
+  </si>
+  <si>
+    <t>20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|50,1,0,0,0|55,1,0,0,0|60,1,0,0,0|200,1,0,0,0</t>
+  </si>
+  <si>
     <t>血刀大法</t>
   </si>
   <si>
-    <t>20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|50,1,0,0,0|55,1,0,0,0|60,1,0,0,0|200,1,0,0,0</t>
+    <t>狂风斩法</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|120,3,0,0,0|250,3,0,0,0</t>
   </si>
   <si>
     <t>狂风刀法</t>
   </si>
   <si>
-    <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|120,3,0,0,0|250,3,0,0,0</t>
+    <t>反两仪斩</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,1,0,0,0|90,1,0,0,0|105,2,0,0,0|120,2,0,0,0|135,2,0,0,0|150,3,0,0,0|250,3,0,0,0</t>
   </si>
   <si>
     <t>反两仪刀法</t>
   </si>
   <si>
-    <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,1,0,0,0|90,1,0,0,0|105,2,0,0,0|120,2,0,0,0|135,2,0,0,0|150,3,0,0,0|250,3,0,0,0</t>
-  </si>
-  <si>
     <t>火焰刀法</t>
   </si>
   <si>
     <t>40,2,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,3,0,0,0|160,4,0,0,0|180,4,0,0,0|200,4,0,0,0|300,5,0,0,0</t>
   </si>
   <si>
+    <t>古月刀法</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,2,0,0,0|240,3,0,0,0|270,3,0,0,0|400,3,0,0,0</t>
+  </si>
+  <si>
     <t>胡家刀法</t>
   </si>
   <si>
-    <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,2,0,0,0|240,3,0,0,0|270,3,0,0,0|400,3,0,0,0</t>
+    <t>霹雳斩法</t>
+  </si>
+  <si>
+    <t>10,1,0,0,0|20,1,0,0,0|40,1,0,0,0|70,1,0,0,0|110,1,0,0,0|160,3,1,0,0|220,3,1,0,0|290,5,2,0,0|370,5,2,0,0|500,7,3,0,0</t>
   </si>
   <si>
     <t>霹雳刀法</t>
   </si>
   <si>
-    <t>10,1,0,0,0|20,1,0,0,0|40,1,0,0,0|70,1,0,0,0|110,1,0,0,0|160,3,1,0,0|220,3,1,0,0|290,5,2,0,0|370,5,2,0,0|500,7,3,0,0</t>
+    <t>神龙钩术</t>
+  </si>
+  <si>
+    <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|100,1,0,0,0</t>
   </si>
   <si>
     <t>神龙双勾</t>
   </si>
   <si>
-    <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|100,1,0,0,0</t>
+    <t>密宗杖法</t>
   </si>
   <si>
     <t>大轮杖法</t>
@@ -530,111 +665,156 @@
     <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,2,0,0,0|25,2,0,0,0|30,2,0,0,0|35,3,0,0,0|40,3,0,0,0|45,3,0,0,0|100,4,0,0,0</t>
   </si>
   <si>
+    <t>鳄鱼之咬</t>
+  </si>
+  <si>
+    <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|150,1,0,0,0</t>
+  </si>
+  <si>
     <t>鳄鱼</t>
   </si>
   <si>
-    <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|150,1,0,0,0</t>
+    <t>蜘珠之咬</t>
+  </si>
+  <si>
+    <t>10,1,0,0,0|20,1,0,0,0|30,1,0,0,0|40,1,0,0,0|50,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,1,0,0,0|90,1,0,0,0|150,1,0,0,0</t>
   </si>
   <si>
     <t>大蜘珠</t>
   </si>
   <si>
-    <t>10,1,0,0,0|20,1,0,0,0|30,1,0,0,0|40,1,0,0,0|50,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,1,0,0,0|90,1,0,0,0|150,1,0,0,0</t>
-  </si>
-  <si>
     <t>毒龙鞭法</t>
   </si>
   <si>
     <t>30,2,0,0,0|40,2,0,0,0|50,2,0,0,0|60,2,0,0,0|70,2,0,0,0|80,3,0,0,0|90,3,0,0,0|100,3,0,0,0|110,3,0,0,0|200,3,0,0,0</t>
   </si>
   <si>
+    <t>黄沙鞭法</t>
+  </si>
+  <si>
+    <t>45,2,0,0,0|60,2,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,3,0,0,0|135,3,0,0,0|150,3,0,0,0|165,3,0,0,0|250,3,0,0,0</t>
+  </si>
+  <si>
     <t>黄沙万里鞭</t>
   </si>
   <si>
-    <t>45,2,0,0,0|60,2,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,3,0,0,0|135,3,0,0,0|150,3,0,0,0|165,3,0,0,0|250,3,0,0,0</t>
+    <t>雪怪重击</t>
+  </si>
+  <si>
+    <t>15,2,0,0,0|30,2,0,0,0|45,2,0,0,0|60,2,0,0,0|75,2,0,0,0|90,3,0,0,0|105,3,0,0,0|120,3,0,0,0|135,3,0,0,0|350,3,0,0,0</t>
   </si>
   <si>
     <t>雪怪</t>
   </si>
   <si>
-    <t>15,2,0,0,0|30,2,0,0,0|45,2,0,0,0|60,2,0,0,0|75,2,0,0,0|90,3,0,0,0|105,3,0,0,0|120,3,0,0,0|135,3,0,0,0|350,3,0,0,0</t>
+    <t>判官笔法</t>
+  </si>
+  <si>
+    <t>15,1,0,0,0|30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,2,0,0,0|135,3,0,0,0|300,3,0,0,0</t>
   </si>
   <si>
     <t>判官笔</t>
   </si>
   <si>
-    <t>15,1,0,0,0|30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,2,0,0,0|135,3,0,0,0|300,3,0,0,0</t>
+    <t>持棋盘法</t>
+  </si>
+  <si>
+    <t>20,2,0,0,0|40,2,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,3,0,0,0|160,3,0,0,0|180,4,0,0,0|350,4,0,0,0</t>
   </si>
   <si>
     <t>持棋盘</t>
   </si>
   <si>
-    <t>20,2,0,0,0|40,2,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,3,0,0,0|160,3,0,0,0|180,4,0,0,0|350,4,0,0,0</t>
+    <t>剪刀术</t>
+  </si>
+  <si>
+    <t>15,1,0,0,0|30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,1,0,0,0|90,1,0,0,0|105,1,0,0,0|120,1,0,0,0|135,1,0,0,0|350,1,0,0,0</t>
   </si>
   <si>
     <t>大剪刀</t>
   </si>
   <si>
-    <t>15,1,0,0,0|30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,1,0,0,0|90,1,0,0,0|105,1,0,0,0|120,1,0,0,0|135,1,0,0,0|350,1,0,0,0</t>
+    <t>夺魂琴音</t>
+  </si>
+  <si>
+    <t>25,3,0,0,0|50,3,0,0,0|75,3,0,0,0|100,4,0,0,0|125,4,0,0,0|150,4,0,0,0|175,5,0,0,0|200,5,0,0,0|225,5,0,0,0|400,6,0,0,0</t>
   </si>
   <si>
     <t>持瑶琴</t>
   </si>
   <si>
-    <t>25,3,0,0,0|50,3,0,0,0|75,3,0,0,0|100,4,0,0,0|125,4,0,0,0|150,4,0,0,0|175,5,0,0,0|200,5,0,0,0|225,5,0,0,0|400,6,0,0,0</t>
+    <t>蟒蛇之咬</t>
+  </si>
+  <si>
+    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,1,0,0,0|250,1,0,0,0|300,1,0,0,0|350,1,0,0,0|400,1,0,0,0|450,1,0,0,0|500,1,0,0,0</t>
   </si>
   <si>
     <t>大蟒蛇</t>
   </si>
   <si>
-    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,1,0,0,0|250,1,0,0,0|300,1,0,0,0|350,1,0,0,0|400,1,0,0,0|450,1,0,0,0|500,1,0,0,0</t>
+    <t>金花禅杖</t>
+  </si>
+  <si>
+    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|120,1,0,0,0|140,1,0,0,0|160,1,0,0,0|180,1,0,0,0|300,1,0,0,0</t>
   </si>
   <si>
     <t>金花杖法</t>
   </si>
   <si>
-    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|120,1,0,0,0|140,1,0,0,0|160,1,0,0,0|180,1,0,0,0|300,1,0,0,0</t>
-  </si>
-  <si>
     <t>神龙鹿杖</t>
   </si>
   <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,3,0,0,0|180,3,0,0,0|210,4,1,0,0|240,4,1,0,0|270,5,1,0,0|450,5,1,0,0</t>
   </si>
   <si>
+    <t>天下无狗棍法</t>
+  </si>
+  <si>
+    <t>30,2,0,0,0|60,2,0,0,0|90,2,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,2,0,0,0|240,2,0,0,0|270,2,0,0,0|450,2,0,0,0</t>
+  </si>
+  <si>
     <t>打狗棍法</t>
   </si>
   <si>
-    <t>30,2,0,0,0|60,2,0,0,0|90,2,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,2,0,0,0|240,2,0,0,0|270,2,0,0,0|450,2,0,0,0</t>
+    <t>金轮大法</t>
+  </si>
+  <si>
+    <t>40,1,1,0,0|80,1,1,0,0|120,1,1,0,0|160,1,1,0,0|200,1,1,0,0|240,1,1,0,0|280,1,2,0,0|320,1,2,0,0|360,1,2,0,0|500,1,2,0,0</t>
   </si>
   <si>
     <t>五轮大法</t>
   </si>
   <si>
-    <t>40,1,1,0,0|80,1,1,0,0|120,1,1,0,0|160,1,1,0,0|200,1,1,0,0|240,1,1,0,0|280,1,2,0,0|320,1,2,0,0|360,1,2,0,0|500,1,2,0,0</t>
+    <t>三分剑法</t>
+  </si>
+  <si>
+    <t>30,2,0,0,0|50,2,0,0,0|70,2,0,0,0|90,3,0,0,0|100,3,0,0,0|110,3,0,0,0|120,4,0,0,0|125,4,0,0,0|130,4,0,0,0|200,5,0,0,0</t>
   </si>
   <si>
     <t>松风剑法</t>
   </si>
   <si>
-    <t>30,2,0,0,0|50,2,0,0,0|70,2,0,0,0|90,3,0,0,0|100,3,0,0,0|110,3,0,0,0|120,4,0,0,0|125,4,0,0,0|130,4,0,0,0|200,5,0,0,0</t>
-  </si>
-  <si>
     <t>1,1,0,0,0|5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|50,1,0,0,0|90,1,0,0,0|120,1,0,0,0|200,1,0,0,0|300,1,0,0,0</t>
   </si>
   <si>
+    <t>狮吼功</t>
+  </si>
+  <si>
+    <t>25,3,1,0,0|50,3,1,0,0|75,3,1,0,0|100,4,2,0,0|125,4,2,0,0|150,4,2,0,0|200,5,3,0,0|300,5,3,0,0|400,5,3,0,0|500,6,4,0,0</t>
+  </si>
+  <si>
     <t>狮子吼</t>
   </si>
   <si>
-    <t>25,3,1,0,0|50,3,1,0,0|75,3,1,0,0|100,4,2,0,0|125,4,2,0,0|150,4,2,0,0|200,5,3,0,0|300,5,3,0,0|400,5,3,0,0|500,6,4,0,0</t>
+    <t>纯阳内劲功法</t>
+  </si>
+  <si>
+    <t>80,1,0,0,0|120,1,0,0,0|160,1,0,0,0|200,2,1,0,0|250,2,1,0,0|310,2,1,0,0|370,3,2,0,0|460,3,2,0,0|560,3,2,0,0|700,4,3,0,0</t>
   </si>
   <si>
     <t>九阳神功</t>
   </si>
   <si>
-    <t>80,1,0,0,0|120,1,0,0,0|160,1,0,0,0|200,2,1,0,0|250,2,1,0,0|310,2,1,0,0|370,3,2,0,0|460,3,2,0,0|560,3,2,0,0|700,4,3,0,0</t>
-  </si>
-  <si>
     <t>用毒</t>
   </si>
   <si>
@@ -642,6 +822,9 @@
   </si>
   <si>
     <t>医疗</t>
+  </si>
+  <si>
+    <t>蛤蟆咬</t>
   </si>
   <si>
     <t>莽牯朱蛤</t>
@@ -1729,14 +1912,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="112" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1745,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1767,36 +1951,42 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1811,15 +2001,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -1834,15 +2027,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -1857,15 +2053,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -1880,15 +2079,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -1903,15 +2105,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1926,15 +2131,18 @@
         <v>6</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -1949,15 +2157,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -1972,15 +2183,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>34</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -1995,15 +2209,18 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>37</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -2018,15 +2235,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -2041,15 +2261,18 @@
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -2064,15 +2287,18 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -2087,15 +2313,18 @@
         <v>5</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>49</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
+      <c r="B17" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -2110,15 +2339,18 @@
         <v>6</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>52</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>43</v>
+      <c r="B18" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -2133,15 +2365,18 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
+      <c r="B19" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -2156,15 +2391,18 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>57</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -2179,15 +2417,18 @@
         <v>7</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>49</v>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -2202,15 +2443,18 @@
         <v>10</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>63</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
+      <c r="B22" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -2225,15 +2469,18 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>66</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>53</v>
+      <c r="B23" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -2248,15 +2495,18 @@
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
+      <c r="B24" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -2271,15 +2521,18 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>72</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>57</v>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -2294,15 +2547,18 @@
         <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>75</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>59</v>
+      <c r="B26" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -2317,15 +2573,18 @@
         <v>50</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>61</v>
+      <c r="B27" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -2340,15 +2599,18 @@
         <v>0</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>81</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="3">
         <v>24</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>63</v>
+      <c r="B28" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -2363,15 +2625,18 @@
         <v>0</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="3">
         <v>25</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>65</v>
+      <c r="B29" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -2386,15 +2651,18 @@
         <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>87</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="3">
         <v>26</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>67</v>
+      <c r="B30" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -2409,15 +2677,18 @@
         <v>0</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>90</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="3">
         <v>27</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>69</v>
+      <c r="B31" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -2432,15 +2703,18 @@
         <v>0</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>93</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="3">
         <v>28</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>71</v>
+      <c r="B32" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -2455,15 +2729,18 @@
         <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>96</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="3">
         <v>29</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>73</v>
+      <c r="B33" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -2478,15 +2755,18 @@
         <v>0</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>99</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="3">
         <v>30</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>75</v>
+      <c r="B34" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -2501,15 +2781,18 @@
         <v>0</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="3">
         <v>31</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>77</v>
+      <c r="B35" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -2524,15 +2807,18 @@
         <v>0</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -2547,15 +2833,18 @@
         <v>0</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>107</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -2570,15 +2859,18 @@
         <v>0</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>107</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
@@ -2593,15 +2885,18 @@
         <v>0</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>110</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -2616,15 +2911,18 @@
         <v>0</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>110</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -2639,15 +2937,18 @@
         <v>0</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>110</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -2662,15 +2963,18 @@
         <v>0</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>114</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
@@ -2685,15 +2989,18 @@
         <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>116</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -2708,15 +3015,18 @@
         <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>118</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -2731,15 +3041,18 @@
         <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>120</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="3">
         <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
@@ -2754,15 +3067,18 @@
         <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>122</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="3">
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -2777,15 +3093,18 @@
         <v>0</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>124</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="3">
         <v>43</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>98</v>
+      <c r="B47" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -2800,15 +3119,18 @@
         <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>126</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="3">
         <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
@@ -2823,15 +3145,18 @@
         <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>128</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="3">
         <v>45</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>102</v>
+      <c r="B49" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
@@ -2846,15 +3171,18 @@
         <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>130</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="3">
         <v>46</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>104</v>
+      <c r="B50" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="C50" s="3">
         <v>0</v>
@@ -2869,15 +3197,18 @@
         <v>0</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>133</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="3">
         <v>47</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>106</v>
+      <c r="B51" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C51" s="3">
         <v>0</v>
@@ -2892,15 +3223,18 @@
         <v>0</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>136</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="3">
         <v>48</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>108</v>
+      <c r="B52" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="C52" s="3">
         <v>0</v>
@@ -2915,15 +3249,18 @@
         <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>139</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="3">
         <v>49</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>110</v>
+      <c r="B53" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
@@ -2938,15 +3275,18 @@
         <v>0</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>142</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="3">
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="C54" s="3">
         <v>0</v>
@@ -2961,15 +3301,18 @@
         <v>0</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>145</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="3">
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
@@ -2984,15 +3327,18 @@
         <v>0</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>147</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="3">
         <v>52</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>116</v>
+      <c r="B56" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="C56" s="3">
         <v>0</v>
@@ -3007,15 +3353,18 @@
         <v>0</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>149</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="3">
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C57" s="3">
         <v>0</v>
@@ -3030,15 +3379,18 @@
         <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>151</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="3">
         <v>54</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>120</v>
+      <c r="B58" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C58" s="3">
         <v>0</v>
@@ -3053,15 +3405,18 @@
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>153</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="3">
         <v>55</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>122</v>
+      <c r="B59" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C59" s="3">
         <v>0</v>
@@ -3076,15 +3431,18 @@
         <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>156</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="3">
         <v>56</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>124</v>
+      <c r="B60" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C60" s="3">
         <v>0</v>
@@ -3099,15 +3457,18 @@
         <v>0</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>159</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="3">
         <v>57</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>126</v>
+      <c r="B61" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C61" s="3">
         <v>0</v>
@@ -3122,15 +3483,18 @@
         <v>0</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>162</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="3">
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="C62" s="3">
         <v>0</v>
@@ -3145,15 +3509,18 @@
         <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>165</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="3">
         <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="C63" s="3">
         <v>0</v>
@@ -3168,15 +3535,18 @@
         <v>0</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>167</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="3">
         <v>60</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>132</v>
+      <c r="B64" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C64" s="3">
         <v>0</v>
@@ -3191,15 +3561,18 @@
         <v>0</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>169</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="3">
         <v>61</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>134</v>
+      <c r="B65" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="C65" s="3">
         <v>0</v>
@@ -3214,15 +3587,18 @@
         <v>0</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="3">
         <v>62</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>136</v>
+      <c r="B66" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="C66" s="3">
         <v>0</v>
@@ -3237,15 +3613,18 @@
         <v>0</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>175</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="3">
         <v>63</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>138</v>
+      <c r="B67" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C67" s="3">
         <v>0</v>
@@ -3260,15 +3639,18 @@
         <v>0</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>177</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="3">
         <v>64</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>140</v>
+      <c r="B68" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="C68" s="3">
         <v>0</v>
@@ -3283,15 +3665,18 @@
         <v>0</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>180</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="3">
         <v>65</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>142</v>
+      <c r="B69" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="C69" s="3">
         <v>0</v>
@@ -3306,15 +3691,18 @@
         <v>0</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>183</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="3">
         <v>66</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>144</v>
+      <c r="B70" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C70" s="3">
         <v>0</v>
@@ -3329,15 +3717,18 @@
         <v>0</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>186</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="3">
         <v>67</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>146</v>
+      <c r="B71" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="C71" s="3">
         <v>0</v>
@@ -3352,15 +3743,18 @@
         <v>0</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>188</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="3">
         <v>68</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>148</v>
+      <c r="B72" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
@@ -3375,15 +3769,18 @@
         <v>0</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>191</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="3">
         <v>69</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>150</v>
+      <c r="B73" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C73" s="3">
         <v>0</v>
@@ -3398,15 +3795,18 @@
         <v>0</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>194</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="3">
         <v>70</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>152</v>
+      <c r="B74" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="C74" s="3">
         <v>0</v>
@@ -3421,15 +3821,18 @@
         <v>0</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>194</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="3">
         <v>71</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="C75" s="3">
         <v>0</v>
@@ -3444,15 +3847,18 @@
         <v>0</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>194</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="3">
         <v>72</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>154</v>
+      <c r="B76" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="C76" s="3">
         <v>0</v>
@@ -3467,15 +3873,18 @@
         <v>0</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>200</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="3">
         <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="C77" s="3">
         <v>0</v>
@@ -3490,15 +3899,18 @@
         <v>0</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>202</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="3">
         <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="C78" s="3">
         <v>0</v>
@@ -3513,15 +3925,18 @@
         <v>0</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>204</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="3">
         <v>75</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>160</v>
+      <c r="B79" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="C79" s="3">
         <v>0</v>
@@ -3536,15 +3951,18 @@
         <v>0</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>206</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="3">
         <v>76</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>162</v>
+      <c r="B80" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="C80" s="3">
         <v>0</v>
@@ -3559,15 +3977,18 @@
         <v>0</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>209</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="3">
         <v>77</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C81" s="3">
         <v>0</v>
@@ -3582,15 +4003,18 @@
         <v>0</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="3">
         <v>78</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>166</v>
+      <c r="B82" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="C82" s="3">
         <v>0</v>
@@ -3605,15 +4029,18 @@
         <v>0</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>214</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="3">
         <v>79</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>168</v>
+      <c r="B83" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="C83" s="3">
         <v>0</v>
@@ -3628,15 +4055,18 @@
         <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="3">
         <v>80</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>170</v>
+      <c r="B84" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="C84" s="3">
         <v>0</v>
@@ -3651,15 +4081,18 @@
         <v>0</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>220</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="3">
         <v>81</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>172</v>
+      <c r="B85" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="C85" s="3">
         <v>0</v>
@@ -3674,15 +4107,18 @@
         <v>0</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>223</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="3">
         <v>82</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>174</v>
+      <c r="B86" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="C86" s="3">
         <v>0</v>
@@ -3697,15 +4133,18 @@
         <v>0</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>226</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="3">
         <v>83</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>176</v>
+      <c r="B87" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C87" s="3">
         <v>0</v>
@@ -3720,15 +4159,18 @@
         <v>0</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>229</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="3">
         <v>84</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>178</v>
+      <c r="B88" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C88" s="3">
         <v>0</v>
@@ -3743,15 +4185,18 @@
         <v>0</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>232</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="3">
         <v>85</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>180</v>
+      <c r="B89" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C89" s="3">
         <v>0</v>
@@ -3766,15 +4211,18 @@
         <v>0</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>235</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="3">
         <v>86</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>182</v>
+      <c r="B90" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="C90" s="3">
         <v>0</v>
@@ -3789,15 +4237,18 @@
         <v>0</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>238</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="3">
         <v>87</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>184</v>
+      <c r="B91" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="C91" s="3">
         <v>0</v>
@@ -3812,15 +4263,18 @@
         <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>240</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="3">
         <v>88</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>186</v>
+      <c r="B92" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="C92" s="3">
         <v>0</v>
@@ -3835,15 +4289,18 @@
         <v>0</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>243</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="3">
         <v>89</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>188</v>
+      <c r="B93" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="C93" s="3">
         <v>0</v>
@@ -3858,15 +4315,18 @@
         <v>0</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>246</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="3">
         <v>90</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C94" s="3">
         <v>0</v>
@@ -3881,15 +4341,18 @@
         <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>248</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="3">
         <v>91</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>191</v>
+      <c r="B95" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -3904,15 +4367,18 @@
         <v>0</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>250</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="3">
         <v>92</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>193</v>
+      <c r="B96" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -3927,15 +4393,18 @@
         <v>0</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" spans="1:7">
+        <v>253</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="1:8">
       <c r="A97" s="5">
         <v>93</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C97" s="5">
         <v>2</v>
@@ -3950,15 +4419,18 @@
         <v>0</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="1" spans="1:7">
+        <v>253</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="1:8">
       <c r="A98" s="5">
         <v>94</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="C98" s="5">
         <v>3</v>
@@ -3973,15 +4445,18 @@
         <v>0</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" s="1" customFormat="1" spans="1:7">
+        <v>253</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="1:8">
       <c r="A99" s="5">
         <v>95</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="C99" s="5">
         <v>4</v>
@@ -3996,15 +4471,18 @@
         <v>0</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="100" ht="16.5" spans="1:7">
+        <v>253</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" ht="16.5" spans="1:8">
       <c r="A100" s="3">
         <v>96</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C100" s="3">
         <v>0</v>
@@ -4019,15 +4497,18 @@
         <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="1" spans="1:7">
+        <v>232</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="1:8">
       <c r="A101" s="5">
         <v>97</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="C101" s="5">
         <v>5</v>
@@ -4042,7 +4523,10 @@
         <v>0</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>194</v>
+        <v>253</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:7">

--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/武功.xlsx
@@ -107,10 +107,10 @@
     <t>0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0</t>
   </si>
   <si>
-    <t>石剪布拳法</t>
-  </si>
-  <si>
-    <t>3,1,0,0,0|5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|40,1,0,0,0|80,1,0,0,0|160,1,0,0,0|320,1,0,0,0|1200,4,0,0,0</t>
+    <t>三脚猫拳法</t>
+  </si>
+  <si>
+    <t>10,1,0,0,0|12,1,0,0,0|20,1,0,0,0|35,1,0,0,0|80,1,0,0,0|100,1,0,0,0|200,1,0,0,0|260,1,0,0,0|320,1,0,0,0|800,4,0,0,0</t>
   </si>
   <si>
     <t>野球拳</t>
@@ -1914,8 +1914,8 @@
   <sheetPr/>
   <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/武功.xlsx
@@ -806,7 +806,7 @@
     <t>狮子吼</t>
   </si>
   <si>
-    <t>纯阳内劲功法</t>
+    <t>九阳无极功</t>
   </si>
   <si>
     <t>80,1,0,0,0|120,1,0,0,0|160,1,0,0,0|200,2,1,0,0|250,2,1,0,0|310,2,1,0,0|370,3,2,0,0|460,3,2,0,0|560,3,2,0,0|700,4,3,0,0</t>
@@ -1914,8 +1914,8 @@
   <sheetPr/>
   <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/武功.xlsx
@@ -533,7 +533,7 @@
     <t>玉箫剑法</t>
   </si>
   <si>
-    <t>玄铁斩</t>
+    <t>玄铁重剑</t>
   </si>
   <si>
     <t>60,3,0,0,0|90,3,0,0,0|120,3,0,0,0|150,3,0,0,0|200,3,0,0,0|250,5,0,0,0|300,5,0,0,0|400,5,0,0,0|500,5,0,0,0|700,7,0,0,0</t>
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
